--- a/Document/Final report/SE417_00903_NamNH_TestCase/TestCase..xlsx
+++ b/Document/Final report/SE417_00903_NamNH_TestCase/TestCase..xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Home Page_Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Exam_test" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -43,13 +43,38 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="118">
   <si>
     <t>Module Code</t>
-  </si>
-  <si>
-    <t>General Info</t>
   </si>
   <si>
     <t>Test requirement</t>
@@ -511,6 +536,12 @@
   </si>
   <si>
     <t>Change profile account successful</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Exam</t>
   </si>
 </sst>
 </file>
@@ -874,9 +905,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -887,9 +915,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,9 +924,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -913,9 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1019,6 +1038,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,725 +1346,1194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="D53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="17.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="30.75">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A5" s="13">
-        <f>COUNTIF(F9:F999,"Pass")</f>
-        <v>24</v>
-      </c>
-      <c r="B5" s="14">
-        <f>COUNTIF(F9:F999,"Fail")</f>
+      <c r="A5" s="10">
+        <f>COUNTIF(F9:F998,"Pass")</f>
+        <v>44</v>
+      </c>
+      <c r="B5" s="11">
+        <f>COUNTIF(F9:F998,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <f>E5-D5-B5-A5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="15">
-        <f>COUNTIF(F$10:F$1000,"N/A")</f>
+      <c r="D5" s="12">
+        <f>COUNTIF(F$10:F$999,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="16">
-        <f>COUNTA(A9:A999)</f>
+      <c r="E5" s="51">
+        <f>COUNTA(A9:A998)</f>
+        <v>44</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="114.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="114.75" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22" t="s">
+      <c r="C10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="150">
+      <c r="A11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="25">
+        <v>41114</v>
+      </c>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="157.5">
+      <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="25">
+        <v>41115</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="141.75">
+      <c r="A13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="25">
+        <v>41116</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="141.75">
+      <c r="A14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="25">
+        <v>41117</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="25">
+        <v>41118</v>
+      </c>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="31.5">
+      <c r="A16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="25">
+        <v>41119</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="90">
+      <c r="A17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25">
+        <v>41120</v>
+      </c>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="105" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="25">
+        <v>41121</v>
+      </c>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="133.5" customHeight="1">
+      <c r="A19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25">
+        <v>41122</v>
+      </c>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="135">
+      <c r="A20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="25">
+        <v>41123</v>
+      </c>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="225">
+      <c r="A21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="25">
+        <v>41124</v>
+      </c>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="240">
+      <c r="A22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="25">
+        <v>41125</v>
+      </c>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="120">
+      <c r="A23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="25">
+        <v>41126</v>
+      </c>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="161.25" customHeight="1">
+      <c r="A24" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="25">
+        <v>41127</v>
+      </c>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="105">
+      <c r="A25" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="89.25" customHeight="1">
+      <c r="A27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="120">
+      <c r="A28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A30" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="60">
+      <c r="A32" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="60">
+      <c r="A33" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="60">
+      <c r="A34" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="45">
+      <c r="A35" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="45">
+      <c r="A36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="114.75" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="B36" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="D36" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="120">
+      <c r="A37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="29">
+      <c r="B37" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="25">
         <v>41113</v>
       </c>
-      <c r="H9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="114.75" customHeight="1">
-      <c r="A10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="150">
+      <c r="A38" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="29">
-        <v>41113</v>
-      </c>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:8" ht="150">
-      <c r="A11" s="31" t="s">
+      <c r="B38" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="C38" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="D38" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E38" s="31"/>
+      <c r="F38" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="25">
+        <v>41114</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" ht="157.5">
+      <c r="A39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="29">
-        <v>41114</v>
-      </c>
-      <c r="H11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="157.5">
-      <c r="A12" s="31" t="s">
+      <c r="B39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C39" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D39" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E39" s="31"/>
+      <c r="F39" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="25">
+        <v>41115</v>
+      </c>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" ht="141.75">
+      <c r="A40" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="29">
-        <v>41115</v>
-      </c>
-      <c r="H12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="141.75">
-      <c r="A13" s="31" t="s">
+      <c r="B40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="C40" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="D40" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="E40" s="31"/>
+      <c r="F40" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="25">
+        <v>41116</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="141.75">
+      <c r="A41" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="29">
-        <v>41116</v>
-      </c>
-      <c r="H13" s="34"/>
-    </row>
-    <row r="14" spans="1:8" ht="141.75">
-      <c r="A14" s="31" t="s">
+      <c r="B41" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="C41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="37" t="s">
+      <c r="E41" s="31"/>
+      <c r="F41" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="25">
+        <v>41117</v>
+      </c>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="29">
-        <v>41117</v>
-      </c>
-      <c r="H14" s="34"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="25">
+        <v>41118</v>
+      </c>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" ht="31.5">
+      <c r="A43" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="29">
-        <v>41118</v>
-      </c>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="31.5">
-      <c r="A16" s="42" t="s">
+      <c r="B43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="C43" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="D43" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="E43" s="38"/>
+      <c r="F43" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="25">
+        <v>41119</v>
+      </c>
+      <c r="H43" s="40"/>
+    </row>
+    <row r="44" spans="1:8" ht="90">
+      <c r="A44" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="29">
-        <v>41119</v>
-      </c>
-      <c r="H16" s="44"/>
-    </row>
-    <row r="17" spans="1:8" ht="90">
-      <c r="A17" s="42" t="s">
+      <c r="B44" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C44" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="D44" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E44" s="21"/>
+      <c r="F44" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="25">
+        <v>41120</v>
+      </c>
+      <c r="H44" s="42"/>
+    </row>
+    <row r="45" spans="1:8" ht="135">
+      <c r="A45" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="29">
-        <v>41120</v>
-      </c>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:8" ht="105" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="B45" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="C45" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="D45" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="25">
+        <v>41121</v>
+      </c>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="165">
+      <c r="A46" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="29">
-        <v>41121</v>
-      </c>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="133.5" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="B46" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="C46" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="D46" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="E46" s="46"/>
+      <c r="F46" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="25">
+        <v>41122</v>
+      </c>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="135">
+      <c r="A47" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="29">
-        <v>41122</v>
-      </c>
-      <c r="H19" s="50"/>
-    </row>
-    <row r="20" spans="1:8" ht="135">
-      <c r="A20" s="42" t="s">
+      <c r="B47" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="C47" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="D47" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="25">
+        <v>41123</v>
+      </c>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="225">
+      <c r="A48" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="29">
-        <v>41123</v>
-      </c>
-      <c r="H20" s="50"/>
-    </row>
-    <row r="21" spans="1:8" ht="225">
-      <c r="A21" s="42" t="s">
+      <c r="B48" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="C48" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="D48" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="E48" s="46"/>
+      <c r="F48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="25">
+        <v>41124</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="240">
+      <c r="A49" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="29">
-        <v>41124</v>
-      </c>
-      <c r="H21" s="50"/>
-    </row>
-    <row r="22" spans="1:8" ht="240">
-      <c r="A22" s="42" t="s">
+      <c r="B49" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="C49" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="D49" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="E49" s="46"/>
+      <c r="F49" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="25">
+        <v>41125</v>
+      </c>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:8" ht="120">
+      <c r="A50" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="29">
-        <v>41125</v>
-      </c>
-      <c r="H22" s="50"/>
-    </row>
-    <row r="23" spans="1:8" ht="120">
-      <c r="A23" s="47" t="s">
+      <c r="B50" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="C50" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="D50" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="E50" s="46"/>
+      <c r="F50" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="25">
+        <v>41126</v>
+      </c>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:8" ht="135">
+      <c r="A51" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="29">
-        <v>41126</v>
-      </c>
-      <c r="H23" s="50"/>
-    </row>
-    <row r="24" spans="1:8" ht="161.25" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="B51" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="C51" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="D51" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="E51" s="46"/>
+      <c r="F51" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="25">
+        <v>41127</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="105">
+      <c r="A52" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="29">
-        <v>41127</v>
-      </c>
-      <c r="H24" s="50"/>
-    </row>
-    <row r="25" spans="1:8" ht="105">
-      <c r="A25" s="47" t="s">
+      <c r="B52" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="C52" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="D52" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="29">
+      <c r="E52" s="43"/>
+      <c r="F52" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="25">
         <v>41128</v>
       </c>
-      <c r="H25" s="47"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22" t="s">
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:8" ht="105">
+      <c r="A53" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="89.25" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="B53" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="C53" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="D53" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="E53" s="46"/>
+      <c r="F53" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:8" ht="120">
+      <c r="A54" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="29">
+      <c r="B54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="25">
         <v>41128</v>
       </c>
-      <c r="H27" s="50"/>
-    </row>
-    <row r="28" spans="1:8" ht="120">
-      <c r="A28" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="50" t="s">
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="29">
+      <c r="B55" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="25">
         <v>41128</v>
       </c>
-      <c r="H28" s="50"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="50" t="s">
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8" ht="60">
+      <c r="A56" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="29">
+      <c r="B56" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="25">
         <v>41128</v>
       </c>
-      <c r="H29" s="50"/>
-    </row>
-    <row r="30" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A30" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="29">
-        <v>41128</v>
-      </c>
-      <c r="H30" s="50"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-    </row>
-    <row r="32" spans="1:8" ht="60">
-      <c r="A32" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="29">
-        <v>41128</v>
-      </c>
-      <c r="H32" s="50"/>
-    </row>
-    <row r="33" spans="1:8" ht="60">
-      <c r="A33" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="29">
-        <v>41128</v>
-      </c>
-      <c r="H33" s="50"/>
-    </row>
-    <row r="34" spans="1:8" ht="60">
-      <c r="A34" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="29">
-        <v>41128</v>
-      </c>
-      <c r="H34" s="50"/>
-    </row>
-    <row r="35" spans="1:8" ht="45">
-      <c r="A35" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="29">
-        <v>41128</v>
-      </c>
-      <c r="H35" s="50"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="H58" s="46"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="H59" s="46"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="H60" s="46"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="H61" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2044,7 +2544,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2 F6:F35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2 F6:F56">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2057,13 +2557,1324 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:G61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="45.75">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="50"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A5" s="10">
+        <f>COUNTIF(F9:F998,"Pass")</f>
+        <v>49</v>
+      </c>
+      <c r="B5" s="11">
+        <f>COUNTIF(F9:F998,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <f>E5-D5-B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <f>COUNTIF(F$10:F$999,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
+        <f>COUNTA(A9:A998)</f>
+        <v>49</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="72.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="159" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="135">
+      <c r="A11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="25">
+        <v>41114</v>
+      </c>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" ht="157.5">
+      <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="25">
+        <v>41115</v>
+      </c>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" ht="152.25" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="25">
+        <v>41116</v>
+      </c>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" ht="189.75" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="25">
+        <v>41117</v>
+      </c>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="25">
+        <v>41118</v>
+      </c>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="31.5">
+      <c r="A16" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="25">
+        <v>41119</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" ht="97.5" customHeight="1">
+      <c r="A17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25">
+        <v>41120</v>
+      </c>
+      <c r="H17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="208.5" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="25">
+        <v>41121</v>
+      </c>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8" ht="165" customHeight="1">
+      <c r="A19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25">
+        <v>41122</v>
+      </c>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" ht="187.5" customHeight="1">
+      <c r="A20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="25">
+        <v>41123</v>
+      </c>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8" ht="217.5" customHeight="1">
+      <c r="A21" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="25">
+        <v>41124</v>
+      </c>
+      <c r="H21" s="46"/>
+    </row>
+    <row r="22" spans="1:8" ht="251.25" customHeight="1">
+      <c r="A22" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="25">
+        <v>41125</v>
+      </c>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8" ht="147" customHeight="1">
+      <c r="A23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="25">
+        <v>41126</v>
+      </c>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8" ht="155.25" customHeight="1">
+      <c r="A24" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="25">
+        <v>41127</v>
+      </c>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="123.75" customHeight="1">
+      <c r="A25" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="1:8" ht="33" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="142.5" customHeight="1">
+      <c r="A27" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="163.5" customHeight="1">
+      <c r="A28" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:8" ht="30">
+      <c r="A29" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:8" ht="70.5" customHeight="1">
+      <c r="A30" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="1:8" ht="107.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="89.25" customHeight="1">
+      <c r="A33" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="104.25" customHeight="1">
+      <c r="A34" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" ht="80.25" customHeight="1">
+      <c r="A35" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="46"/>
+      <c r="F35" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="1:8" ht="68.25" customHeight="1">
+      <c r="A36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="166.5" customHeight="1">
+      <c r="A37" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="25">
+        <v>41113</v>
+      </c>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="195" customHeight="1">
+      <c r="A38" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="25">
+        <v>41114</v>
+      </c>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" ht="148.5" customHeight="1">
+      <c r="A39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="25">
+        <v>41115</v>
+      </c>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" ht="181.5" customHeight="1">
+      <c r="A40" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="25">
+        <v>41116</v>
+      </c>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="166.5" customHeight="1">
+      <c r="A41" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="25">
+        <v>41117</v>
+      </c>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="34"/>
+      <c r="B42" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="25">
+        <v>41118</v>
+      </c>
+      <c r="H42" s="37"/>
+    </row>
+    <row r="43" spans="1:8" ht="69.75" customHeight="1">
+      <c r="A43" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="25">
+        <v>41119</v>
+      </c>
+      <c r="H43" s="40"/>
+    </row>
+    <row r="44" spans="1:8" ht="112.5" customHeight="1">
+      <c r="A44" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="25">
+        <v>41120</v>
+      </c>
+      <c r="H44" s="42"/>
+    </row>
+    <row r="45" spans="1:8" ht="157.5" customHeight="1">
+      <c r="A45" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="25">
+        <v>41121</v>
+      </c>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="177.75" customHeight="1">
+      <c r="A46" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="46"/>
+      <c r="F46" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="25">
+        <v>41122</v>
+      </c>
+      <c r="H46" s="46"/>
+    </row>
+    <row r="47" spans="1:8" ht="121.5" customHeight="1">
+      <c r="A47" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="46"/>
+      <c r="F47" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="25">
+        <v>41123</v>
+      </c>
+      <c r="H47" s="46"/>
+    </row>
+    <row r="48" spans="1:8" ht="256.5" customHeight="1">
+      <c r="A48" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="46"/>
+      <c r="F48" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="25">
+        <v>41124</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" ht="246.75" customHeight="1">
+      <c r="A49" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="46"/>
+      <c r="F49" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="25">
+        <v>41125</v>
+      </c>
+      <c r="H49" s="46"/>
+    </row>
+    <row r="50" spans="1:10" ht="149.25" customHeight="1">
+      <c r="A50" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="46"/>
+      <c r="F50" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="25">
+        <v>41126</v>
+      </c>
+      <c r="H50" s="46"/>
+    </row>
+    <row r="51" spans="1:10" ht="159" customHeight="1">
+      <c r="A51" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="46"/>
+      <c r="F51" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="25">
+        <v>41127</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" ht="153.75" customHeight="1">
+      <c r="A52" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="43"/>
+      <c r="F52" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H52" s="43"/>
+    </row>
+    <row r="53" spans="1:10" ht="139.5" customHeight="1">
+      <c r="A53" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="46"/>
+      <c r="F53" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" ht="147" customHeight="1">
+      <c r="A54" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" ht="30">
+      <c r="A55" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:10" ht="85.5" customHeight="1">
+      <c r="A56" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:10" ht="30">
+      <c r="A57" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="46"/>
+      <c r="F57" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="1:10" ht="45">
+      <c r="A58" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="46"/>
+      <c r="F58" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="25">
+        <v>41128</v>
+      </c>
+      <c r="H58" s="27"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="30"/>
+    </row>
+    <row r="59" spans="1:10" ht="135">
+      <c r="A59" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="46"/>
+      <c r="F59" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="25">
+        <v>41122</v>
+      </c>
+      <c r="H59" s="27"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="30"/>
+    </row>
+    <row r="60" spans="1:10" ht="120">
+      <c r="A60" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="25">
+        <v>41123</v>
+      </c>
+      <c r="H60" s="27"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="30"/>
+    </row>
+    <row r="61" spans="1:10" ht="225">
+      <c r="A61" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="46"/>
+      <c r="F61" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="25">
+        <v>41124</v>
+      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="30"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2 F6:F61 H57:H62">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
